--- a/html/Sygesikringssystemer_excel.XLSX
+++ b/html/Sygesikringssystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3796079-A34F-4465-AFBF-AD21FABED8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1C1FE-8789-4DC1-8D54-94CA787F1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygesikringssystemer">'Opdateret d. 12-05-2025'!$A$1:$D$21</definedName>
+    <definedName name="Sygesikringssystemer">'Opdateret d. 16-05-2025'!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Sygesikringssystemer_excel.XLSX
+++ b/html/Sygesikringssystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1C1FE-8789-4DC1-8D54-94CA787F1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9EC6D-F582-4DB3-A13A-C3722C9E31CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygesikringssystemer">'Opdateret d. 16-05-2025'!$A$1:$D$21</definedName>
+    <definedName name="Sygesikringssystemer">'Opdateret d. 02-12-2025'!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/html/Sygesikringssystemer_excel.XLSX
+++ b/html/Sygesikringssystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9EC6D-F582-4DB3-A13A-C3722C9E31CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF9D60F-D7C1-41B6-9D86-C982550C98A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Sygesikringssystemer_excel.XLSX
+++ b/html/Sygesikringssystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF9D60F-D7C1-41B6-9D86-C982550C98A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A883704-8F33-421B-9E43-33B8A5B312DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygesikringssystemer">'Opdateret d. 02-12-2025'!$A$1:$D$21</definedName>
+    <definedName name="Sygesikringssystemer">'Opdateret d. 05-12-2025'!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -487,9 +487,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -713,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>

--- a/html/Sygesikringssystemer_excel.XLSX
+++ b/html/Sygesikringssystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A883704-8F33-421B-9E43-33B8A5B312DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB3797F-5F9D-455B-9D1F-AD86BB3D37DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygesikringssystemer">'Opdateret d. 05-12-2025'!$A$1:$D$21</definedName>
+    <definedName name="Sygesikringssystemer">'Opdateret d. 19-12-2025'!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -487,9 +487,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -713,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
